--- a/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
+++ b/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/Intervention evaluation study/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8366E68E-16F9-40AF-9ACC-E6C15218AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282EDBE4-EF47-FE40-95AE-877BB529BA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -113,13 +113,25 @@
   </si>
   <si>
     <t>Reviewer comment</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>Please remove this row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,13 +478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,16 +579,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -595,12 +611,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -633,7 +653,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -666,7 +686,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -699,7 +719,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -732,7 +752,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -765,7 +785,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -798,7 +818,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -831,7 +851,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -864,7 +884,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -897,7 +917,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -930,7 +950,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -963,7 +983,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -996,7 +1016,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1029,7 +1049,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1062,7 +1082,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1095,7 +1115,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1128,7 +1148,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1161,7 +1181,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1194,7 +1214,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1227,7 +1247,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1260,7 +1280,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1293,7 +1313,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1326,7 +1346,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1359,7 +1379,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1392,7 +1412,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1425,7 +1445,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1458,7 +1478,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1491,7 +1511,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1524,7 +1544,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1557,7 +1577,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1590,7 +1610,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1623,7 +1643,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1656,7 +1676,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1689,7 +1709,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1722,7 +1742,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1755,7 +1775,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1788,7 +1808,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1821,7 +1841,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1854,7 +1874,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1887,7 +1907,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1920,7 +1940,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1953,7 +1973,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1986,7 +2006,7 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2019,7 +2039,7 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2052,7 +2072,7 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2085,7 +2105,7 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2118,7 +2138,7 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2151,7 +2171,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2184,7 +2204,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2217,7 +2237,7 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2250,7 +2270,7 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>

--- a/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
+++ b/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
@@ -1,45 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Intervention evaluation study\Inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763319A-D4A6-4A9A-B910-572750CAD615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Informal definition</t>
+  </si>
+  <si>
+    <t>Logical definition</t>
+  </si>
+  <si>
+    <t>Definition source</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>BFO entity</t>
+  </si>
+  <si>
+    <t>Sub-ontology</t>
+  </si>
+  <si>
+    <t>REL 'has role'</t>
+  </si>
+  <si>
+    <t>REL 'realizes'</t>
+  </si>
+  <si>
+    <t>REL 'can influence'</t>
+  </si>
+  <si>
+    <t>REL 'evaluation standard for'</t>
+  </si>
+  <si>
+    <t>REL 'involves'</t>
+  </si>
+  <si>
+    <t>REL 'derives from'</t>
+  </si>
+  <si>
+    <t>REL 'has part'</t>
+  </si>
+  <si>
+    <t>REL 'is about'</t>
+  </si>
+  <si>
+    <t>REL 'equivalent to'</t>
+  </si>
+  <si>
+    <t>REL 'contains'</t>
+  </si>
+  <si>
+    <t>Curator note</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Cross reference</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Examples of usage</t>
+  </si>
+  <si>
+    <t>Fuzzy set</t>
+  </si>
+  <si>
+    <t>Why fuzzy</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>Curation status</t>
+  </si>
+  <si>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
+  </si>
+  <si>
+    <t>Reviewer comment</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>An information content entity that is about the difference between a value created by a prediction process and the value that the prediction process aims to predict.</t>
+  </si>
+  <si>
+    <t>information content entity</t>
+  </si>
+  <si>
+    <t>accuracy of prediction</t>
+  </si>
+  <si>
+    <t>generally dependent continuant</t>
+  </si>
+  <si>
+    <t>JH;RW</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,83 +192,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,236 +510,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.42578125" style="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="22.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Definition</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Definition source</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BFO entity</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has role'</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'realizes'</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'can influence'</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'evaluation standard for'</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'involves'</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'derives from'</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has part'</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'is about'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'equivalent to'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'contains'</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Curator note</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Examples of usage</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Fuzzy set</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Why fuzzy</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer comment</t>
-        </is>
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Study</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
-      <c r="W2" s="2" t="inlineStr"/>
-      <c r="X2" s="2" t="inlineStr"/>
-      <c r="Y2" s="2" t="n">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4">
         <v>0</v>
       </c>
-      <c r="Z2" s="2" t="inlineStr"/>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC2" s="2" t="inlineStr"/>
-      <c r="AD2" s="2" t="inlineStr"/>
-      <c r="AE2" s="2" t="inlineStr">
-        <is>
-          <t>Please remove this row</t>
-        </is>
-      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
     </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
+++ b/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\ontologies\Intervention evaluation study\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763319A-D4A6-4A9A-B910-572750CAD615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23BD12-E7D9-4D46-8FA0-5309FEE241F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>JH;RW</t>
+  </si>
+  <si>
+    <t>relative accuracy of prediction</t>
+  </si>
+  <si>
+    <t>Accuracy of prediction that is expressed as a proportion of the value being predicted.</t>
+  </si>
+  <si>
+    <t>A criterion that is the range of values that a person, group or organisation judges to be an acceptably accurate prediction.</t>
+  </si>
+  <si>
+    <t>An acceptable range of accuracy of prediction that is expressed as a proportion of the value that the prediction process aims to predict.</t>
+  </si>
+  <si>
+    <t>acceptable range of relative accuracy of prediction</t>
+  </si>
+  <si>
+    <t>acceptable range of accuracy of prediction</t>
+  </si>
+  <si>
+    <t>accuracy prediction</t>
+  </si>
+  <si>
+    <t>criterion</t>
   </si>
 </sst>
 </file>
@@ -149,12 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,21 +181,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,22 +213,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -524,7 +542,7 @@
     <col min="4" max="16384" width="22.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,57 +637,104 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="51" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="51" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
+++ b/Intervention evaluation study/Inputs/BCIO_Intervention_Evaluation_Study_Defs.xlsx
@@ -592,7 +592,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:050200</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -638,8 +638,10 @@
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr"/>
       <c r="X2" s="2" t="inlineStr"/>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="inlineStr">
@@ -659,7 +661,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:050201</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -705,8 +707,10 @@
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr"/>
       <c r="X3" s="2" t="inlineStr"/>
-      <c r="Y3" s="2" t="n">
-        <v>0</v>
+      <c r="Y3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z3" s="2" t="inlineStr"/>
       <c r="AA3" s="2" t="inlineStr">
@@ -726,7 +730,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:050202</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -795,7 +799,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050003</t>
+          <t>BCIO:050203</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -841,11 +845,13 @@
       <c r="V5" s="2" t="inlineStr"/>
       <c r="W5" s="2" t="inlineStr"/>
       <c r="X5" s="2" t="inlineStr"/>
-      <c r="Y5" s="2" t="inlineStr"/>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="Z5" s="2" t="inlineStr"/>
       <c r="AA5" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="AB5" s="2" t="inlineStr">
@@ -860,7 +866,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050004</t>
+          <t>BCIO:050204</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -906,8 +912,10 @@
       <c r="V6" s="2" t="inlineStr"/>
       <c r="W6" s="2" t="inlineStr"/>
       <c r="X6" s="2" t="inlineStr"/>
-      <c r="Y6" s="2" t="n">
-        <v>0</v>
+      <c r="Y6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z6" s="2" t="inlineStr"/>
       <c r="AA6" s="2" t="inlineStr">
